--- a/input_estimates_v2.xlsx
+++ b/input_estimates_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B8FEB6D-9498-40BC-B2FA-E2D06DDDDC2C}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87103CA9-798B-4903-A839-3FFF38EBE6D8}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{374AAA1E-B073-4CF1-B979-99CE47E0D28D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
   <si>
     <t>variable</t>
   </si>
@@ -192,10 +192,37 @@
     <t>eggs</t>
   </si>
   <si>
-    <t>working_costs</t>
-  </si>
-  <si>
     <t>work_per_irrigation</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Final, für 225 Hennen, Stand der Technik</t>
+  </si>
+  <si>
+    <t>working_hours_chicken</t>
+  </si>
+  <si>
+    <t>working_hours_costs</t>
+  </si>
+  <si>
+    <t>€/h</t>
+  </si>
+  <si>
+    <t>h total</t>
+  </si>
+  <si>
+    <t>final for 225 hens</t>
+  </si>
+  <si>
+    <t>kg/a</t>
+  </si>
+  <si>
+    <t>feed_costs</t>
+  </si>
+  <si>
+    <t>hours</t>
   </si>
 </sst>
 </file>
@@ -211,18 +238,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,10 +258,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -555,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B142AC-1DE2-46C2-BBE5-78F1603E233D}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,49 +613,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="3">
         <v>200</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>250</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
-        <v>900</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
         <v>1500</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -662,13 +684,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -742,13 +764,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -759,13 +781,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -817,7 +839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -840,40 +862,40 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1000</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
         <v>2000</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>300</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
         <v>500</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -882,13 +904,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
@@ -902,52 +924,52 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>200</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
         <v>400</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>150</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
         <v>250</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -956,13 +978,13 @@
         <v>34</v>
       </c>
       <c r="B20" s="1">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -973,13 +995,13 @@
         <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
@@ -996,7 +1018,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="2">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -1005,7 +1027,7 @@
         <v>2.65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>38</v>
@@ -1025,10 +1047,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>40</v>
@@ -1036,22 +1058,22 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1059,154 +1081,232 @@
         <v>41</v>
       </c>
       <c r="B25" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3300</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7300</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" s="1">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" s="1">
+        <v>56000</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="B33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1">
+        <v>250</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>350</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/input_estimates_v2.xlsx
+++ b/input_estimates_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87103CA9-798B-4903-A839-3FFF38EBE6D8}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1245499-9249-4B1D-87A4-D6A45C9CA990}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{374AAA1E-B073-4CF1-B979-99CE47E0D28D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{374AAA1E-B073-4CF1-B979-99CE47E0D28D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
   <si>
     <t>variable</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>hours</t>
+  </si>
+  <si>
+    <t>Landwirt noch fragen!</t>
   </si>
 </sst>
 </file>
@@ -579,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B142AC-1DE2-46C2-BBE5-78F1603E233D}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,6 +1221,9 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1259,7 +1265,7 @@
         <v>27</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1303,6 +1309,9 @@
       </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/input_estimates_v2.xlsx
+++ b/input_estimates_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1245499-9249-4B1D-87A4-D6A45C9CA990}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3458A3F-E276-4265-8159-E8D66A935543}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{374AAA1E-B073-4CF1-B979-99CE47E0D28D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
   <si>
     <t>variable</t>
   </si>
@@ -96,9 +96,6 @@
     <t>truffle_yield</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
     <t>truffle_price</t>
   </si>
   <si>
@@ -117,12 +114,6 @@
     <t>tree_planting_cost</t>
   </si>
   <si>
-    <t>€</t>
-  </si>
-  <si>
-    <t>€/kg</t>
-  </si>
-  <si>
     <t>final</t>
   </si>
   <si>
@@ -144,15 +135,9 @@
     <t>water_per_day</t>
   </si>
   <si>
-    <t>liter</t>
-  </si>
-  <si>
     <t>water_price</t>
   </si>
   <si>
-    <t>€/1000 Liter</t>
-  </si>
-  <si>
     <t>days_to_irrigate</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>Manure</t>
   </si>
   <si>
-    <t>€/a</t>
-  </si>
-  <si>
     <t>initial_chicken_mobile_cost</t>
   </si>
   <si>
@@ -207,25 +189,115 @@
     <t>working_hours_costs</t>
   </si>
   <si>
-    <t>€/h</t>
-  </si>
-  <si>
-    <t>h total</t>
-  </si>
-  <si>
     <t>final for 225 hens</t>
   </si>
   <si>
-    <t>kg/a</t>
-  </si>
-  <si>
     <t>feed_costs</t>
   </si>
   <si>
-    <t>hours</t>
-  </si>
-  <si>
     <t>Landwirt noch fragen!</t>
+  </si>
+  <si>
+    <t>Grass Planting in €</t>
+  </si>
+  <si>
+    <t>Fence construction in €</t>
+  </si>
+  <si>
+    <t>Machinery investions in €</t>
+  </si>
+  <si>
+    <t>Maintaining Fence in €</t>
+  </si>
+  <si>
+    <t>Planting Hazelnuts in €</t>
+  </si>
+  <si>
+    <t>Maintaining Trees in €</t>
+  </si>
+  <si>
+    <t>Cost to replace Tree in €</t>
+  </si>
+  <si>
+    <t>Nut Harvest Cost in €</t>
+  </si>
+  <si>
+    <t>Nut Yield in €</t>
+  </si>
+  <si>
+    <t>Nut Price in €/kg</t>
+  </si>
+  <si>
+    <t>Cost for Harvest Nets in €</t>
+  </si>
+  <si>
+    <t>Cost to fertilize Nuts in €/a</t>
+  </si>
+  <si>
+    <t>Cost planting truffle in €</t>
+  </si>
+  <si>
+    <t>Cost truffle harvest in €</t>
+  </si>
+  <si>
+    <t>Truffle Yield in €</t>
+  </si>
+  <si>
+    <t>Truffle Price in €/kg</t>
+  </si>
+  <si>
+    <t>Subsidies in €</t>
+  </si>
+  <si>
+    <t>Income Crop land in €/a</t>
+  </si>
+  <si>
+    <t>Installation of irrigation in €</t>
+  </si>
+  <si>
+    <t>Water usage in l/d</t>
+  </si>
+  <si>
+    <t>Water Price in €/m3</t>
+  </si>
+  <si>
+    <t>Amount of days to irrigate</t>
+  </si>
+  <si>
+    <t>Working hours per irrigation day</t>
+  </si>
+  <si>
+    <t>Maintaining costs of irrigation in €</t>
+  </si>
+  <si>
+    <t>Cost for hens in €</t>
+  </si>
+  <si>
+    <t>Cost for chicken mobile in €</t>
+  </si>
+  <si>
+    <t>Cost maintaining chicken mobile in €</t>
+  </si>
+  <si>
+    <t>Cost per kg Chicken feed in €</t>
+  </si>
+  <si>
+    <t>Chicken feed per year in kg</t>
+  </si>
+  <si>
+    <t>Replacement cost per Chicken in €</t>
+  </si>
+  <si>
+    <t>Amount of Eggs</t>
+  </si>
+  <si>
+    <t>Price per egg in €</t>
+  </si>
+  <si>
+    <t>Working hours chicken in h/a</t>
+  </si>
+  <si>
+    <t>Cost per working hour in €</t>
   </si>
 </sst>
 </file>
@@ -583,13 +655,13 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G29"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
     <col min="7" max="7" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -633,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -656,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -664,7 +736,7 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>1000</v>
@@ -678,8 +750,11 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -699,7 +774,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -707,7 +782,7 @@
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>3000</v>
@@ -720,6 +795,9 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -741,6 +819,9 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
@@ -761,6 +842,9 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -778,10 +862,13 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>800</v>
@@ -796,12 +883,12 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -816,15 +903,15 @@
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>1200</v>
@@ -838,13 +925,16 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <v>40</v>
@@ -859,15 +949,15 @@
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
@@ -882,12 +972,12 @@
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1">
         <v>300</v>
@@ -900,6 +990,9 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -919,12 +1012,12 @@
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>500</v>
@@ -937,6 +1030,9 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -955,10 +1051,13 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>150</v>
@@ -973,12 +1072,12 @@
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>2000</v>
@@ -992,10 +1091,13 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>1500</v>
@@ -1010,15 +1112,15 @@
         <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2">
         <v>2.65</v>
@@ -1030,18 +1132,18 @@
         <v>2.65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>30</v>
@@ -1053,15 +1155,18 @@
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -1076,12 +1181,12 @@
         <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>300</v>
@@ -1094,6 +1199,9 @@
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1112,13 +1220,16 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
         <v>30000</v>
@@ -1133,15 +1244,15 @@
         <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
         <v>1000</v>
@@ -1156,12 +1267,12 @@
         <v>9</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1">
         <v>0.28000000000000003</v>
@@ -1176,15 +1287,15 @@
         <v>9</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
         <v>6400</v>
@@ -1199,15 +1310,15 @@
         <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
@@ -1221,13 +1332,16 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
         <v>56000</v>
@@ -1241,13 +1355,16 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G32" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
         <v>0.2</v>
@@ -1262,15 +1379,15 @@
         <v>9</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1">
         <v>250</v>
@@ -1285,15 +1402,15 @@
         <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1">
         <v>12</v>
@@ -1308,10 +1425,10 @@
         <v>9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
